--- a/df_fuzzy_salary.xlsx
+++ b/df_fuzzy_salary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\newbie\Fuzzy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B1D2FE-8991-42E5-A47D-C524ABB5A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE416647-D6EA-4509-80D2-D4837D89466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="4635" windowWidth="15585" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,9 @@
     <t>Account Manager</t>
   </si>
   <si>
+    <t>LOW</t>
+  </si>
+  <si>
     <t>ID003</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
   </si>
   <si>
     <t>Administration</t>
-  </si>
-  <si>
-    <t>LOW</t>
   </si>
   <si>
     <t>NO</t>
@@ -895,14 +895,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{790B37FD-5795-49F8-89D1-028BCCF2D808}" name="Table1" displayName="Table1" ref="A1:E122" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:E122" xr:uid="{790B37FD-5795-49F8-89D1-028BCCF2D808}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4FF4087-4DA3-494F-BBDE-A2192E09E5B5}" name="Table1" displayName="Table1" ref="A1:E122" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:E122" xr:uid="{D4FF4087-4DA3-494F-BBDE-A2192E09E5B5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D9056ABD-D0E6-4A02-B312-CD1869352B66}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{AD73409C-C4F1-4A49-9A3F-1EC4C6090E7D}" name="Role"/>
-    <tableColumn id="3" xr3:uid="{E52B09F5-8802-401D-8FC6-A9869B562B72}" name="Years Experience"/>
-    <tableColumn id="4" xr3:uid="{90AFC187-3945-4873-B483-BE48119CE7CD}" name="Salary(in dollar)"/>
-    <tableColumn id="5" xr3:uid="{2273C447-587F-434A-BB39-0507E86FC8A2}" name="Worth?"/>
+    <tableColumn id="1" xr3:uid="{85C0C948-03E4-40BE-8CF4-E72EEAFE6144}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{C91BFCA2-565B-4535-B193-57BD09396251}" name="Role"/>
+    <tableColumn id="3" xr3:uid="{BC452A70-859F-4B77-BF72-6C61BAE22880}" name="Years Experience"/>
+    <tableColumn id="4" xr3:uid="{1C15A253-85F9-47BA-9673-D83329B47857}" name="Salary(in dollar)"/>
+    <tableColumn id="5" xr3:uid="{DAEC93AB-E60E-4D05-8143-045F34A26E44}" name="Worth?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1196,16 +1196,15 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1261,13 +1260,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1278,16 +1277,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1318,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1352,7 +1351,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1372,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1386,7 +1385,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1403,7 +1402,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1420,7 +1419,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1471,13 +1470,13 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1488,7 +1487,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -1505,7 +1504,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -1522,7 +1521,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -1539,7 +1538,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1573,13 +1572,13 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1593,7 +1592,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1624,7 +1623,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1641,7 +1640,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -1658,7 +1657,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1709,7 +1708,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1726,7 +1725,7 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1777,7 +1776,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1811,7 +1810,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1828,10 +1827,10 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1845,7 +1844,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1862,7 +1861,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -1899,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -1947,7 +1946,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1964,7 +1963,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -1981,10 +1980,10 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -2032,13 +2031,13 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,10 +2048,10 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -2066,7 +2065,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -2083,10 +2082,10 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -2100,7 +2099,7 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -2117,7 +2116,7 @@
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -2134,7 +2133,7 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -2185,7 +2184,7 @@
         <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2202,13 +2201,13 @@
         <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2219,7 +2218,7 @@
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2236,7 +2235,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -2253,7 +2252,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -2270,7 +2269,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -2304,7 +2303,7 @@
         <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2321,7 +2320,7 @@
         <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -2338,7 +2337,7 @@
         <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -2355,7 +2354,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -2372,13 +2371,13 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2406,7 +2405,7 @@
         <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -2440,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -2457,7 +2456,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -2494,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -2508,7 +2507,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -2542,7 +2541,7 @@
         <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -2576,7 +2575,7 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -2610,7 +2609,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -2661,7 +2660,7 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2695,7 +2694,7 @@
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2746,7 +2745,7 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2797,13 +2796,13 @@
         <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2899,7 +2898,7 @@
         <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2933,13 +2932,13 @@
         <v>211</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2987,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
         <v>16</v>
@@ -3001,7 +3000,7 @@
         <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -3035,7 +3034,7 @@
         <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
@@ -3052,10 +3051,10 @@
         <v>225</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -3086,10 +3085,10 @@
         <v>229</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -3154,7 +3153,7 @@
         <v>237</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -3171,7 +3170,7 @@
         <v>239</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -3205,7 +3204,7 @@
         <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -3239,7 +3238,7 @@
         <v>247</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -3276,7 +3275,7 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
         <v>16</v>
